--- a/project/src/assets/탭&컬럼확장 테스트파일.xlsx
+++ b/project/src/assets/탭&컬럼확장 테스트파일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\Create_Room_Card_From_Excel\project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3437F745-88E1-4897-8BAB-73EC6B64BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F35BCF6-8B5D-40D2-8FF2-D53E5513E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9110" yWindow="0" windowWidth="9120" windowHeight="12000" firstSheet="1" activeTab="2" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="12220" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB변환" sheetId="1" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -8755,7 +8755,7 @@
   <dimension ref="A1:O210"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -15041,7 +15041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A5BF3-1B12-47F1-A1B6-BF4BBC3E5C97}">
   <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>

--- a/project/src/assets/탭&컬럼확장 테스트파일.xlsx
+++ b/project/src/assets/탭&컬럼확장 테스트파일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\Create_Room_Card_From_Excel\project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F35BCF6-8B5D-40D2-8FF2-D53E5513E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E9D9B0-BC59-462A-9444-B210621081CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="12220" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="12220" activeTab="3" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB변환" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="263">
   <si>
     <t>단체명</t>
   </si>
@@ -378,6 +378,494 @@
   </si>
   <si>
     <t>4(4 : 1/3)</t>
+  </si>
+  <si>
+    <t>동규최교회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규짱짱교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규메롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규이뻐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규이뻐 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규이뻐 2</t>
+  </si>
+  <si>
+    <t>동규이뻐 3</t>
+  </si>
+  <si>
+    <t>동규이뻐 4</t>
+  </si>
+  <si>
+    <t>동규이뻐 5</t>
+  </si>
+  <si>
+    <t>동규이뻐 6</t>
+  </si>
+  <si>
+    <t>동규이뻐 7</t>
+  </si>
+  <si>
+    <t>동규이뻐 8</t>
+  </si>
+  <si>
+    <t>동규이뻐 9</t>
+  </si>
+  <si>
+    <t>동규이뻐 10</t>
+  </si>
+  <si>
+    <t>동규이뻐 11</t>
+  </si>
+  <si>
+    <t>동규이뻐 12</t>
+  </si>
+  <si>
+    <t>동규이뻐 13</t>
+  </si>
+  <si>
+    <t>동규이뻐 14</t>
+  </si>
+  <si>
+    <t>동규이뻐 15</t>
+  </si>
+  <si>
+    <t>동규이뻐 16</t>
+  </si>
+  <si>
+    <t>동규이뻐 17</t>
+  </si>
+  <si>
+    <t>동규이뻐 18</t>
+  </si>
+  <si>
+    <t>동규이뻐 19</t>
+  </si>
+  <si>
+    <t>동규이뻐 20</t>
+  </si>
+  <si>
+    <t>동규이뻐 21</t>
+  </si>
+  <si>
+    <t>동규이뻐 22</t>
+  </si>
+  <si>
+    <t>동규이뻐 23</t>
+  </si>
+  <si>
+    <t>동규이뻐 24</t>
+  </si>
+  <si>
+    <t>동규이뻐 25</t>
+  </si>
+  <si>
+    <t>동규이뻐 26</t>
+  </si>
+  <si>
+    <t>동규이뻐 27</t>
+  </si>
+  <si>
+    <t>동규이뻐 28</t>
+  </si>
+  <si>
+    <t>동규이뻐 29</t>
+  </si>
+  <si>
+    <t>동규이뻐 30</t>
+  </si>
+  <si>
+    <t>동규이뻐 31</t>
+  </si>
+  <si>
+    <t>동규이뻐 32</t>
+  </si>
+  <si>
+    <t>동규이뻐 33</t>
+  </si>
+  <si>
+    <t>동규이뻐 34</t>
+  </si>
+  <si>
+    <t>동규이뻐 35</t>
+  </si>
+  <si>
+    <t>동규이뻐 36</t>
+  </si>
+  <si>
+    <t>동규이뻐 37</t>
+  </si>
+  <si>
+    <t>동규메롱 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규메롱 2</t>
+  </si>
+  <si>
+    <t>동규메롱 3</t>
+  </si>
+  <si>
+    <t>동규메롱 4</t>
+  </si>
+  <si>
+    <t>동규메롱 5</t>
+  </si>
+  <si>
+    <t>동규메롱 6</t>
+  </si>
+  <si>
+    <t>동규메롱 7</t>
+  </si>
+  <si>
+    <t>동규메롱 8</t>
+  </si>
+  <si>
+    <t>동규메롱 9</t>
+  </si>
+  <si>
+    <t>동규메롱 10</t>
+  </si>
+  <si>
+    <t>동규메롱 11</t>
+  </si>
+  <si>
+    <t>동규메롱 12</t>
+  </si>
+  <si>
+    <t>동규메롱 13</t>
+  </si>
+  <si>
+    <t>동규메롱 14</t>
+  </si>
+  <si>
+    <t>동규메롱 15</t>
+  </si>
+  <si>
+    <t>동규메롱 16</t>
+  </si>
+  <si>
+    <t>동규메롱 17</t>
+  </si>
+  <si>
+    <t>동규메롱 18</t>
+  </si>
+  <si>
+    <t>동규메롱 19</t>
+  </si>
+  <si>
+    <t>동규메롱 20</t>
+  </si>
+  <si>
+    <t>동규메롱 21</t>
+  </si>
+  <si>
+    <t>동규메롱 22</t>
+  </si>
+  <si>
+    <t>동규메롱 23</t>
+  </si>
+  <si>
+    <t>동규메롱 24</t>
+  </si>
+  <si>
+    <t>동규메롱 25</t>
+  </si>
+  <si>
+    <t>동규메롱 26</t>
+  </si>
+  <si>
+    <t>동규메롱 27</t>
+  </si>
+  <si>
+    <t>동규메롱 28</t>
+  </si>
+  <si>
+    <t>동규메롱 29</t>
+  </si>
+  <si>
+    <t>동규메롱 30</t>
+  </si>
+  <si>
+    <t>동규메롱 31</t>
+  </si>
+  <si>
+    <t>동규메롱 32</t>
+  </si>
+  <si>
+    <t>동규메롱 33</t>
+  </si>
+  <si>
+    <t>동규메롱 34</t>
+  </si>
+  <si>
+    <t>동규메롱 35</t>
+  </si>
+  <si>
+    <t>동규메롱 36</t>
+  </si>
+  <si>
+    <t>동규메롱 37</t>
+  </si>
+  <si>
+    <t>이동동동규 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동동동규 2</t>
+  </si>
+  <si>
+    <t>이동동동규 3</t>
+  </si>
+  <si>
+    <t>이동동동규 4</t>
+  </si>
+  <si>
+    <t>이동동동규 5</t>
+  </si>
+  <si>
+    <t>이동동동규 6</t>
+  </si>
+  <si>
+    <t>이동동동규 7</t>
+  </si>
+  <si>
+    <t>이동동동규 8</t>
+  </si>
+  <si>
+    <t>이동동동규 9</t>
+  </si>
+  <si>
+    <t>이동동동규 10</t>
+  </si>
+  <si>
+    <t>이동동동규 11</t>
+  </si>
+  <si>
+    <t>이동동동규 12</t>
+  </si>
+  <si>
+    <t>이동동동규 13</t>
+  </si>
+  <si>
+    <t>이동동동규 14</t>
+  </si>
+  <si>
+    <t>이동동동규 15</t>
+  </si>
+  <si>
+    <t>이동동동규 16</t>
+  </si>
+  <si>
+    <t>이동동동규 17</t>
+  </si>
+  <si>
+    <t>이동동동규 18</t>
+  </si>
+  <si>
+    <t>이동동동규 19</t>
+  </si>
+  <si>
+    <t>이동동동규 20</t>
+  </si>
+  <si>
+    <t>이동동동규 21</t>
+  </si>
+  <si>
+    <t>이동동동규 22</t>
+  </si>
+  <si>
+    <t>이동동동규 23</t>
+  </si>
+  <si>
+    <t>이동동동규 24</t>
+  </si>
+  <si>
+    <t>이동동동규 25</t>
+  </si>
+  <si>
+    <t>이동동동규 26</t>
+  </si>
+  <si>
+    <t>이동동동규 27</t>
+  </si>
+  <si>
+    <t>이동동동규 28</t>
+  </si>
+  <si>
+    <t>이동동동규 29</t>
+  </si>
+  <si>
+    <t>이동동동규 30</t>
+  </si>
+  <si>
+    <t>이동동동규 31</t>
+  </si>
+  <si>
+    <t>이동동동규 32</t>
+  </si>
+  <si>
+    <t>이동동동규 33</t>
+  </si>
+  <si>
+    <t>이동동동규 34</t>
+  </si>
+  <si>
+    <t>이동동동규 35</t>
+  </si>
+  <si>
+    <t>이동동동규 36</t>
+  </si>
+  <si>
+    <t>이동동동규 37</t>
+  </si>
+  <si>
+    <t>동규어깨나아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민주 안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민주 잘자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규 건강해 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동규 건강해 2</t>
+  </si>
+  <si>
+    <t>동규 건강해 3</t>
+  </si>
+  <si>
+    <t>동규 건강해 4</t>
+  </si>
+  <si>
+    <t>동규 건강해 5</t>
+  </si>
+  <si>
+    <t>동규 건강해 6</t>
+  </si>
+  <si>
+    <t>동규 건강해 7</t>
+  </si>
+  <si>
+    <t>동규 건강해 8</t>
+  </si>
+  <si>
+    <t>동규 건강해 9</t>
+  </si>
+  <si>
+    <t>동규 건강해 10</t>
+  </si>
+  <si>
+    <t>동규 건강해 11</t>
+  </si>
+  <si>
+    <t>동규 건강해 12</t>
+  </si>
+  <si>
+    <t>동규 건강해 13</t>
+  </si>
+  <si>
+    <t>동규 건강해 14</t>
+  </si>
+  <si>
+    <t>동규 건강해 15</t>
+  </si>
+  <si>
+    <t>동규 건강해 16</t>
+  </si>
+  <si>
+    <t>동규 건강해 17</t>
+  </si>
+  <si>
+    <t>동규 건강해 18</t>
+  </si>
+  <si>
+    <t>동규 건강해 19</t>
+  </si>
+  <si>
+    <t>동규 건강해 20</t>
+  </si>
+  <si>
+    <t>동규 건강해 21</t>
+  </si>
+  <si>
+    <t>동규 건강해 22</t>
+  </si>
+  <si>
+    <t>동규 건강해 23</t>
+  </si>
+  <si>
+    <t>동규 건강해 24</t>
+  </si>
+  <si>
+    <t>동규 건강해 25</t>
+  </si>
+  <si>
+    <t>동규 건강해 26</t>
+  </si>
+  <si>
+    <t>동규 건강해 27</t>
+  </si>
+  <si>
+    <t>동규 건강해 28</t>
+  </si>
+  <si>
+    <t>동규 건강해 29</t>
+  </si>
+  <si>
+    <t>동규 건강해 30</t>
+  </si>
+  <si>
+    <t>동규 건강해 31</t>
+  </si>
+  <si>
+    <t>동규 건강해 32</t>
+  </si>
+  <si>
+    <t>동규 건강해 33</t>
+  </si>
+  <si>
+    <t>동규 건강해 34</t>
+  </si>
+  <si>
+    <t>동규 건강해 35</t>
+  </si>
+  <si>
+    <t>동규 건강해 36</t>
+  </si>
+  <si>
+    <t>동규 건강해 37</t>
+  </si>
+  <si>
+    <t>믿음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1319,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A23" zoomScale="113" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8917,7 +9405,7 @@
       </c>
       <c r="L4" s="34">
         <f>SUM(형제!C42:C78,형제!E42:E78,형제!G42:G78,형제!I42:I78,형제!K42:K78,형제!M42:M78)</f>
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>35</v>
@@ -8971,7 +9459,7 @@
       </c>
       <c r="O5" s="34">
         <f>SUM(자매!C82:C118,자매!E82:E118,자매!G82:G118,자매!I82:I118,자매!K82:K118,자매!M82:M118)</f>
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -9199,14 +9687,14 @@
       </c>
       <c r="L10" s="36">
         <f>SUM(L3:L9)</f>
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>41</v>
       </c>
       <c r="O10" s="36">
         <f>SUM(O3:O9)</f>
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -15007,7 +15495,7 @@
       </c>
       <c r="H210" s="3">
         <f>COUNTA(자매!B:B)</f>
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -15041,8 +15529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A5BF3-1B12-47F1-A1B6-BF4BBC3E5C97}">
   <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -15384,7 +15872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="39">
         <v>308</v>
       </c>
@@ -15395,7 +15883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="39">
         <v>309</v>
       </c>
@@ -15412,37 +15900,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="40">
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="39">
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="39">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="39">
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="39">
         <v>314</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="40">
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="39">
         <v>316</v>
       </c>
@@ -15459,7 +15959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="39">
         <v>317</v>
       </c>
@@ -15476,7 +15976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="39">
         <v>318</v>
       </c>
@@ -15493,7 +15993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="44">
         <v>319</v>
       </c>
@@ -15516,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="44">
         <v>320</v>
       </c>
@@ -15539,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="40">
         <v>321</v>
       </c>
@@ -15550,7 +16050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="39">
         <v>322</v>
       </c>
@@ -15567,7 +16067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="39">
         <v>323</v>
       </c>
@@ -16680,8 +17180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B040909-9B6B-4D72-83FC-49F0A6556E6D}">
   <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -17119,93 +17619,129 @@
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="39">
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="39">
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="39">
         <v>403</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="39">
         <v>404</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="39">
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="40">
         <v>406</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="39">
         <v>407</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="39">
         <v>408</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="39">
         <v>409</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="40">
         <v>410</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="39">
         <v>411</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="39">
         <v>412</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B93" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="39">
         <v>413</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B94" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="39">
         <v>414</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B95" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="40">
         <v>415</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="39">
         <v>416</v>
       </c>
+      <c r="B97" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="39">
         <v>417</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C98" s="5">
         <v>6</v>
@@ -17215,44 +17751,20 @@
       <c r="A99" s="39">
         <v>418</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="39">
         <v>419</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="39">
         <v>420</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="40">
         <v>421</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="5">
-        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
@@ -17520,769 +18032,1693 @@
       <c r="A122" s="39">
         <v>601</v>
       </c>
+      <c r="B122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="39">
         <v>602</v>
       </c>
+      <c r="B123" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="39">
         <v>603</v>
       </c>
+      <c r="B124" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="39">
         <v>604</v>
       </c>
+      <c r="B125" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="39">
         <v>605</v>
       </c>
+      <c r="B126" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="40">
         <v>606</v>
       </c>
+      <c r="B127" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="39">
         <v>607</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B128" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="39">
         <v>608</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="39">
         <v>609</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B130" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="40">
         <v>610</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B131" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="39">
         <v>611</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B132" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="39">
         <v>612</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B133" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="39">
         <v>613</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B134" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="39">
         <v>614</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B135" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="40">
         <v>615</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B136" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="39">
         <v>616</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B137" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="39">
         <v>617</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B138" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="39">
         <v>618</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B139" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="39">
         <v>619</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B140" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="39">
         <v>620</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B141" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="40">
         <v>621</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B142" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="39">
         <v>622</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B143" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="39">
         <v>623</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B144" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="39">
         <v>624</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B145" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="39">
         <v>625</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B146" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="39">
         <v>626</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B147" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="39">
         <v>627</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B148" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="39">
         <v>628</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B149" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="39">
         <v>629</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B150" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="39">
         <v>630</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B151" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="39">
         <v>631</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B152" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="40">
         <v>632</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B153" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="39">
         <v>633</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B154" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C154" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="39">
         <v>634</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B155" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="39">
         <v>635</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B156" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="39">
         <v>636</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B157" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C157" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="40">
         <v>637</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B158" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="39">
         <v>801</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B162" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C162" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="39">
         <v>802</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B163" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C163" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="39">
         <v>803</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B164" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="39">
         <v>804</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B165" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="39">
         <v>805</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B166" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="40">
         <v>806</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B167" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="39">
         <v>807</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B168" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="39">
         <v>808</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B169" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C169" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="39">
         <v>809</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B170" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C170" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="40">
         <v>810</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B171" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C171" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="39">
         <v>811</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B172" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C172" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="39">
         <v>812</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B173" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C173" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="39">
         <v>813</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B174" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="39">
         <v>814</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B175" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="40">
         <v>815</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B176" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="39">
         <v>816</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B177" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C177" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="39">
         <v>817</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B178" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C178" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="39">
         <v>818</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B179" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C179" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="39">
         <v>819</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B180" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C180" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="43">
         <v>820</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B181" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C181" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="42">
         <v>821</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B182" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C182" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="43">
         <v>822</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B183" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="39">
         <v>823</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B184" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C184" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="39">
         <v>824</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B185" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="39">
         <v>825</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B186" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C186" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="39">
         <v>826</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B187" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C187" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="39">
         <v>827</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B188" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C188" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="39">
         <v>828</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B189" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C189" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="39">
         <v>829</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B190" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C190" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="39">
         <v>830</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B191" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C191" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="39">
         <v>831</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B192" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C192" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="40">
         <v>832</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B193" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C193" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="39">
         <v>833</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B194" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C194" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="39">
         <v>834</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B195" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C195" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="39">
         <v>835</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B196" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C196" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="39">
         <v>836</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B197" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C197" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="40">
         <v>837</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B198" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C198" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="5"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="5"/>
     </row>
-    <row r="201" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="39">
         <v>901</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B202" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C202" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="39">
         <v>902</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B203" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C203" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="39">
         <v>903</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B204" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C204" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="39">
         <v>904</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B205" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C205" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="39">
         <v>905</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B206" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C206" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="40">
         <v>906</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B207" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C207" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="39">
         <v>907</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B208" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C208" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" s="39">
         <v>908</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B209" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C209" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" s="39">
         <v>909</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B210" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C210" s="5">
+        <v>3</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E210" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" s="40">
         <v>910</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B211" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C211" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" s="39">
         <v>911</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B212" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C212" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" s="39">
         <v>912</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B213" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C213" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" s="39">
         <v>913</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B214" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C214" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" s="39">
         <v>914</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B215" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C215" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="40">
         <v>915</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B216" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C216" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" s="39">
         <v>916</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B217" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C217" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" s="39">
         <v>917</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B218" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C218" s="5">
+        <v>3</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E218" s="5">
+        <v>1</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G218" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" s="39">
         <v>918</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B219" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C219" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" s="39">
         <v>919</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B220" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C220" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" s="39">
         <v>920</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B221" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C221" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" s="40">
         <v>921</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B222" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C222" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" s="39">
         <v>922</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B223" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C223" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" s="39">
         <v>923</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B224" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C224" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" s="39">
         <v>924</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B225" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C225" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" s="39">
         <v>925</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B226" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C226" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="39">
         <v>926</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B227" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C227" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" s="39">
         <v>927</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B228" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C228" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="39">
         <v>928</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B229" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C229" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="39">
         <v>929</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B230" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C230" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="39">
         <v>930</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B231" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C231" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="39">
         <v>931</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B232" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C232" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" s="40">
         <v>932</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B233" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C233" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="39">
         <v>933</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B234" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C234" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="39">
         <v>934</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B235" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C235" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="39">
         <v>935</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B236" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C236" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" s="39">
         <v>936</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B237" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C237" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A238" s="40">
         <v>937</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B238" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C238" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="39"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="39"/>
     </row>
-    <row r="241" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A241" s="32"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242" s="39">
         <v>1001</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B242" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C242" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243" s="39">
         <v>1002</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B243" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C243" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244" s="39">
         <v>1003</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B244" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C244" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245" s="39">
         <v>1004</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B245" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C245" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246" s="39">
         <v>1005</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B246" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247" s="40">
         <v>1006</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B247" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C247" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248" s="39">
         <v>1007</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B248" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C248" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249" s="39">
         <v>1008</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B249" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C249" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250" s="39">
         <v>1009</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B250" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C250" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251" s="40">
         <v>1010</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B251" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C251" s="5">
+        <v>4</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E251" s="5">
+        <v>1</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G251" s="5">
+        <v>1</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I251" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252" s="39">
         <v>1011</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B252" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C252" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253" s="39">
         <v>1012</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B253" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C253" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254" s="39">
         <v>1013</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B254" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C254" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255" s="39">
         <v>1014</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B255" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C255" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256" s="40">
         <v>1015</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B256" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C256" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="39">
         <v>1016</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B257" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C257" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="39">
         <v>1017</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B258" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C258" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="39">
         <v>1018</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B259" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C259" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="39">
         <v>1019</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B260" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C260" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="39">
         <v>1020</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B261" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C261" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="40">
         <v>1021</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B262" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C262" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="39">
         <v>1022</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B263" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C263" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="39">
         <v>1023</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B264" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C264" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="39">
         <v>1024</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B265" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C265" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="39">
         <v>1025</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B266" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C266" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="39">
         <v>1026</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B267" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C267" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" s="39">
         <v>1027</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B268" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C268" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" s="39">
         <v>1028</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B269" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C269" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" s="39">
         <v>1029</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B270" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C270" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="39">
         <v>1030</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B271" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C271" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="39">
         <v>1031</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B272" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C272" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="40">
         <v>1032</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B273" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C273" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" s="39">
         <v>1033</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B274" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C274" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="39">
         <v>1034</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B275" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C275" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" s="39">
         <v>1035</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B276" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C276" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="39">
         <v>1036</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B277" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C277" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A278" s="40">
         <v>1037</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B278" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C278" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" s="39"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" s="39"/>
     </row>
   </sheetData>

--- a/project/src/assets/탭&컬럼확장 테스트파일.xlsx
+++ b/project/src/assets/탭&컬럼확장 테스트파일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\Create_Room_Card_From_Excel\project\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E9D9B0-BC59-462A-9444-B210621081CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E02DD-F758-43FC-80B8-1E8C565C2243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="12220" activeTab="3" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="12220" activeTab="2" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB변환" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="114">
   <si>
     <t>단체명</t>
   </si>
@@ -396,475 +396,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동규이뻐 1</t>
+    <t>사랑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동규이뻐 2</t>
+    <t>합계</t>
   </si>
   <si>
-    <t>동규이뻐 3</t>
-  </si>
-  <si>
-    <t>동규이뻐 4</t>
-  </si>
-  <si>
-    <t>동규이뻐 5</t>
-  </si>
-  <si>
-    <t>동규이뻐 6</t>
-  </si>
-  <si>
-    <t>동규이뻐 7</t>
-  </si>
-  <si>
-    <t>동규이뻐 8</t>
-  </si>
-  <si>
-    <t>동규이뻐 9</t>
-  </si>
-  <si>
-    <t>동규이뻐 10</t>
-  </si>
-  <si>
-    <t>동규이뻐 11</t>
-  </si>
-  <si>
-    <t>동규이뻐 12</t>
-  </si>
-  <si>
-    <t>동규이뻐 13</t>
-  </si>
-  <si>
-    <t>동규이뻐 14</t>
-  </si>
-  <si>
-    <t>동규이뻐 15</t>
-  </si>
-  <si>
-    <t>동규이뻐 16</t>
-  </si>
-  <si>
-    <t>동규이뻐 17</t>
-  </si>
-  <si>
-    <t>동규이뻐 18</t>
-  </si>
-  <si>
-    <t>동규이뻐 19</t>
-  </si>
-  <si>
-    <t>동규이뻐 20</t>
-  </si>
-  <si>
-    <t>동규이뻐 21</t>
-  </si>
-  <si>
-    <t>동규이뻐 22</t>
-  </si>
-  <si>
-    <t>동규이뻐 23</t>
-  </si>
-  <si>
-    <t>동규이뻐 24</t>
-  </si>
-  <si>
-    <t>동규이뻐 25</t>
-  </si>
-  <si>
-    <t>동규이뻐 26</t>
-  </si>
-  <si>
-    <t>동규이뻐 27</t>
-  </si>
-  <si>
-    <t>동규이뻐 28</t>
-  </si>
-  <si>
-    <t>동규이뻐 29</t>
-  </si>
-  <si>
-    <t>동규이뻐 30</t>
-  </si>
-  <si>
-    <t>동규이뻐 31</t>
-  </si>
-  <si>
-    <t>동규이뻐 32</t>
-  </si>
-  <si>
-    <t>동규이뻐 33</t>
-  </si>
-  <si>
-    <t>동규이뻐 34</t>
-  </si>
-  <si>
-    <t>동규이뻐 35</t>
-  </si>
-  <si>
-    <t>동규이뻐 36</t>
-  </si>
-  <si>
-    <t>동규이뻐 37</t>
-  </si>
-  <si>
-    <t>동규메롱 1</t>
+    <t>평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동규메롱 2</t>
-  </si>
-  <si>
-    <t>동규메롱 3</t>
-  </si>
-  <si>
-    <t>동규메롱 4</t>
-  </si>
-  <si>
-    <t>동규메롱 5</t>
-  </si>
-  <si>
-    <t>동규메롱 6</t>
-  </si>
-  <si>
-    <t>동규메롱 7</t>
-  </si>
-  <si>
-    <t>동규메롱 8</t>
-  </si>
-  <si>
-    <t>동규메롱 9</t>
-  </si>
-  <si>
-    <t>동규메롱 10</t>
-  </si>
-  <si>
-    <t>동규메롱 11</t>
-  </si>
-  <si>
-    <t>동규메롱 12</t>
-  </si>
-  <si>
-    <t>동규메롱 13</t>
-  </si>
-  <si>
-    <t>동규메롱 14</t>
-  </si>
-  <si>
-    <t>동규메롱 15</t>
-  </si>
-  <si>
-    <t>동규메롱 16</t>
-  </si>
-  <si>
-    <t>동규메롱 17</t>
-  </si>
-  <si>
-    <t>동규메롱 18</t>
-  </si>
-  <si>
-    <t>동규메롱 19</t>
-  </si>
-  <si>
-    <t>동규메롱 20</t>
-  </si>
-  <si>
-    <t>동규메롱 21</t>
-  </si>
-  <si>
-    <t>동규메롱 22</t>
-  </si>
-  <si>
-    <t>동규메롱 23</t>
-  </si>
-  <si>
-    <t>동규메롱 24</t>
-  </si>
-  <si>
-    <t>동규메롱 25</t>
-  </si>
-  <si>
-    <t>동규메롱 26</t>
-  </si>
-  <si>
-    <t>동규메롱 27</t>
-  </si>
-  <si>
-    <t>동규메롱 28</t>
-  </si>
-  <si>
-    <t>동규메롱 29</t>
-  </si>
-  <si>
-    <t>동규메롱 30</t>
-  </si>
-  <si>
-    <t>동규메롱 31</t>
-  </si>
-  <si>
-    <t>동규메롱 32</t>
-  </si>
-  <si>
-    <t>동규메롱 33</t>
-  </si>
-  <si>
-    <t>동규메롱 34</t>
-  </si>
-  <si>
-    <t>동규메롱 35</t>
-  </si>
-  <si>
-    <t>동규메롱 36</t>
-  </si>
-  <si>
-    <t>동규메롱 37</t>
-  </si>
-  <si>
-    <t>이동동동규 1</t>
+    <t>누계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동동동규 2</t>
-  </si>
-  <si>
-    <t>이동동동규 3</t>
-  </si>
-  <si>
-    <t>이동동동규 4</t>
-  </si>
-  <si>
-    <t>이동동동규 5</t>
-  </si>
-  <si>
-    <t>이동동동규 6</t>
-  </si>
-  <si>
-    <t>이동동동규 7</t>
-  </si>
-  <si>
-    <t>이동동동규 8</t>
-  </si>
-  <si>
-    <t>이동동동규 9</t>
-  </si>
-  <si>
-    <t>이동동동규 10</t>
-  </si>
-  <si>
-    <t>이동동동규 11</t>
-  </si>
-  <si>
-    <t>이동동동규 12</t>
-  </si>
-  <si>
-    <t>이동동동규 13</t>
-  </si>
-  <si>
-    <t>이동동동규 14</t>
-  </si>
-  <si>
-    <t>이동동동규 15</t>
-  </si>
-  <si>
-    <t>이동동동규 16</t>
-  </si>
-  <si>
-    <t>이동동동규 17</t>
-  </si>
-  <si>
-    <t>이동동동규 18</t>
-  </si>
-  <si>
-    <t>이동동동규 19</t>
-  </si>
-  <si>
-    <t>이동동동규 20</t>
-  </si>
-  <si>
-    <t>이동동동규 21</t>
-  </si>
-  <si>
-    <t>이동동동규 22</t>
-  </si>
-  <si>
-    <t>이동동동규 23</t>
-  </si>
-  <si>
-    <t>이동동동규 24</t>
-  </si>
-  <si>
-    <t>이동동동규 25</t>
-  </si>
-  <si>
-    <t>이동동동규 26</t>
-  </si>
-  <si>
-    <t>이동동동규 27</t>
-  </si>
-  <si>
-    <t>이동동동규 28</t>
-  </si>
-  <si>
-    <t>이동동동규 29</t>
-  </si>
-  <si>
-    <t>이동동동규 30</t>
-  </si>
-  <si>
-    <t>이동동동규 31</t>
-  </si>
-  <si>
-    <t>이동동동규 32</t>
-  </si>
-  <si>
-    <t>이동동동규 33</t>
-  </si>
-  <si>
-    <t>이동동동규 34</t>
-  </si>
-  <si>
-    <t>이동동동규 35</t>
-  </si>
-  <si>
-    <t>이동동동규 36</t>
-  </si>
-  <si>
-    <t>이동동동규 37</t>
-  </si>
-  <si>
-    <t>동규어깨나아라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민주 안녕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민주 잘자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동규 건강해 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동규 건강해 2</t>
-  </si>
-  <si>
-    <t>동규 건강해 3</t>
-  </si>
-  <si>
-    <t>동규 건강해 4</t>
-  </si>
-  <si>
-    <t>동규 건강해 5</t>
-  </si>
-  <si>
-    <t>동규 건강해 6</t>
-  </si>
-  <si>
-    <t>동규 건강해 7</t>
-  </si>
-  <si>
-    <t>동규 건강해 8</t>
-  </si>
-  <si>
-    <t>동규 건강해 9</t>
-  </si>
-  <si>
-    <t>동규 건강해 10</t>
-  </si>
-  <si>
-    <t>동규 건강해 11</t>
-  </si>
-  <si>
-    <t>동규 건강해 12</t>
-  </si>
-  <si>
-    <t>동규 건강해 13</t>
-  </si>
-  <si>
-    <t>동규 건강해 14</t>
-  </si>
-  <si>
-    <t>동규 건강해 15</t>
-  </si>
-  <si>
-    <t>동규 건강해 16</t>
-  </si>
-  <si>
-    <t>동규 건강해 17</t>
-  </si>
-  <si>
-    <t>동규 건강해 18</t>
-  </si>
-  <si>
-    <t>동규 건강해 19</t>
-  </si>
-  <si>
-    <t>동규 건강해 20</t>
-  </si>
-  <si>
-    <t>동규 건강해 21</t>
-  </si>
-  <si>
-    <t>동규 건강해 22</t>
-  </si>
-  <si>
-    <t>동규 건강해 23</t>
-  </si>
-  <si>
-    <t>동규 건강해 24</t>
-  </si>
-  <si>
-    <t>동규 건강해 25</t>
-  </si>
-  <si>
-    <t>동규 건강해 26</t>
-  </si>
-  <si>
-    <t>동규 건강해 27</t>
-  </si>
-  <si>
-    <t>동규 건강해 28</t>
-  </si>
-  <si>
-    <t>동규 건강해 29</t>
-  </si>
-  <si>
-    <t>동규 건강해 30</t>
-  </si>
-  <si>
-    <t>동규 건강해 31</t>
-  </si>
-  <si>
-    <t>동규 건강해 32</t>
-  </si>
-  <si>
-    <t>동규 건강해 33</t>
-  </si>
-  <si>
-    <t>동규 건강해 34</t>
-  </si>
-  <si>
-    <t>동규 건강해 35</t>
-  </si>
-  <si>
-    <t>동규 건강해 36</t>
-  </si>
-  <si>
-    <t>동규 건강해 37</t>
-  </si>
-  <si>
-    <t>믿음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사랑</t>
+    <t>개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15495,7 +15042,7 @@
       </c>
       <c r="H210" s="3">
         <f>COUNTA(자매!B:B)</f>
-        <v>171</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -15529,8 +15076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A5BF3-1B12-47F1-A1B6-BF4BBC3E5C97}">
   <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -17180,8 +16727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B040909-9B6B-4D72-83FC-49F0A6556E6D}">
   <dimension ref="A1:M280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -18032,408 +17579,188 @@
       <c r="A122" s="39">
         <v>601</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C122" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="39">
         <v>602</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="39">
         <v>603</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="39">
         <v>604</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C125" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="39">
         <v>605</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="40">
         <v>606</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C127" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="39">
         <v>607</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C128" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" s="39">
         <v>608</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" s="39">
         <v>609</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C130" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="40">
         <v>610</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C131" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132" s="39">
         <v>611</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C132" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" s="39">
         <v>612</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" s="39">
         <v>613</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C134" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" s="39">
         <v>614</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" s="40">
         <v>615</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C136" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" s="39">
         <v>616</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C137" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" s="39">
         <v>617</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C138" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" s="39">
         <v>618</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" s="39">
         <v>619</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" s="39">
         <v>620</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C141" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" s="40">
         <v>621</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C142" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" s="39">
         <v>622</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C143" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" s="39">
         <v>623</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C144" s="5">
-        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="39">
         <v>624</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C145" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="39">
         <v>625</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C146" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="39">
         <v>626</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C147" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="39">
         <v>627</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C148" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="39">
         <v>628</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C149" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="39">
         <v>629</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C150" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="39">
         <v>630</v>
       </c>
-      <c r="B151" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C151" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="39">
         <v>631</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C152" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="40">
         <v>632</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C153" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="39">
         <v>633</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C154" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="39">
         <v>634</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C155" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="39">
         <v>635</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C156" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="39">
         <v>636</v>
       </c>
-      <c r="B157" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C157" s="5">
-        <v>6</v>
-      </c>
     </row>
     <row r="158" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="40">
         <v>637</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C158" s="5">
-        <v>6</v>
-      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="5"/>
@@ -18441,413 +17768,193 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" s="39">
         <v>801</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C162" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163" s="39">
         <v>802</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C163" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" s="39">
         <v>803</v>
       </c>
-      <c r="B164" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C164" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" s="39">
         <v>804</v>
       </c>
-      <c r="B165" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C165" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" s="39">
         <v>805</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C166" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" s="40">
         <v>806</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C167" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" s="39">
         <v>807</v>
       </c>
-      <c r="B168" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C168" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169" s="39">
         <v>808</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C169" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170" s="39">
         <v>809</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C170" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" s="40">
         <v>810</v>
       </c>
-      <c r="B171" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C171" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" s="39">
         <v>811</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C172" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" s="39">
         <v>812</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C173" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174" s="39">
         <v>813</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C174" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" s="39">
         <v>814</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C175" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176" s="40">
         <v>815</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C176" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177" s="39">
         <v>816</v>
       </c>
-      <c r="B177" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C177" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178" s="39">
         <v>817</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C178" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179" s="39">
         <v>818</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C179" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" s="39">
         <v>819</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C180" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181" s="43">
         <v>820</v>
       </c>
-      <c r="B181" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C181" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" s="42">
         <v>821</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C182" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" s="43">
         <v>822</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C183" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" s="39">
         <v>823</v>
       </c>
-      <c r="B184" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C184" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185" s="39">
         <v>824</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C185" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" s="39">
         <v>825</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C186" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" s="39">
         <v>826</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C187" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" s="39">
         <v>827</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C188" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189" s="39">
         <v>828</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C189" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" s="39">
         <v>829</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C190" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191" s="39">
         <v>830</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C191" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192" s="39">
         <v>831</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C192" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="40">
         <v>832</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C193" s="5">
-        <v>2</v>
-      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="39">
         <v>833</v>
       </c>
-      <c r="B194" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C194" s="5">
-        <v>2</v>
-      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="39">
         <v>834</v>
       </c>
-      <c r="B195" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C195" s="5">
-        <v>2</v>
-      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="39">
         <v>835</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C196" s="5">
-        <v>2</v>
-      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="39">
         <v>836</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C197" s="5">
-        <v>2</v>
-      </c>
     </row>
     <row r="198" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="40">
         <v>837</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C198" s="5">
-        <v>2</v>
-      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="5"/>
@@ -18860,426 +17967,188 @@
       <c r="A202" s="39">
         <v>901</v>
       </c>
-      <c r="B202" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C202" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="39">
         <v>902</v>
       </c>
-      <c r="B203" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C203" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="39">
         <v>903</v>
       </c>
-      <c r="B204" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C204" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="39">
         <v>904</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C205" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="39">
         <v>905</v>
       </c>
-      <c r="B206" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C206" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="40">
         <v>906</v>
       </c>
-      <c r="B207" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C207" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="39">
         <v>907</v>
       </c>
-      <c r="B208" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C208" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209" s="39">
         <v>908</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C209" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" s="39">
         <v>909</v>
       </c>
-      <c r="B210" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C210" s="5">
-        <v>3</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E210" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211" s="40">
         <v>910</v>
       </c>
-      <c r="B211" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C211" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" s="39">
         <v>911</v>
       </c>
-      <c r="B212" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C212" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A213" s="39">
         <v>912</v>
       </c>
-      <c r="B213" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C213" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A214" s="39">
         <v>913</v>
       </c>
-      <c r="B214" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C214" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A215" s="39">
         <v>914</v>
       </c>
-      <c r="B215" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C215" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A216" s="40">
         <v>915</v>
       </c>
-      <c r="B216" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C216" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" s="39">
         <v>916</v>
       </c>
-      <c r="B217" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C217" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" s="39">
         <v>917</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C218" s="5">
-        <v>3</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E218" s="5">
-        <v>1</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G218" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A219" s="39">
         <v>918</v>
       </c>
-      <c r="B219" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C219" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A220" s="39">
         <v>919</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C220" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A221" s="39">
         <v>920</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C221" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A222" s="40">
         <v>921</v>
       </c>
-      <c r="B222" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C222" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A223" s="39">
         <v>922</v>
       </c>
-      <c r="B223" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C223" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A224" s="39">
         <v>923</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C224" s="5">
-        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" s="39">
         <v>924</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C225" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" s="39">
         <v>925</v>
       </c>
-      <c r="B226" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C226" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="39">
         <v>926</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C227" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" s="39">
         <v>927</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C228" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="39">
         <v>928</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C229" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="39">
         <v>929</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C230" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="39">
         <v>930</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C231" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="39">
         <v>931</v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C232" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" s="40">
         <v>932</v>
       </c>
-      <c r="B233" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C233" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="39">
         <v>933</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C234" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="39">
         <v>934</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C235" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="39">
         <v>935</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C236" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" s="39">
         <v>936</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C237" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="238" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A238" s="40">
         <v>937</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C238" s="5">
-        <v>3</v>
-      </c>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="39"/>
@@ -19287,433 +18156,195 @@
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="39"/>
     </row>
-    <row r="241" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A241" s="32"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" s="39">
         <v>1001</v>
       </c>
-      <c r="B242" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C242" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A243" s="39">
         <v>1002</v>
       </c>
-      <c r="B243" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C243" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" s="39">
         <v>1003</v>
       </c>
-      <c r="B244" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C244" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A245" s="39">
         <v>1004</v>
       </c>
-      <c r="B245" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C245" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A246" s="39">
         <v>1005</v>
       </c>
-      <c r="B246" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C246" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A247" s="40">
         <v>1006</v>
       </c>
-      <c r="B247" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C247" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A248" s="39">
         <v>1007</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C248" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" s="39">
         <v>1008</v>
       </c>
-      <c r="B249" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C249" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" s="39">
         <v>1009</v>
       </c>
-      <c r="B250" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C250" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A251" s="40">
         <v>1010</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C251" s="5">
-        <v>4</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E251" s="5">
-        <v>1</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G251" s="5">
-        <v>1</v>
-      </c>
-      <c r="H251" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I251" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A252" s="39">
         <v>1011</v>
       </c>
-      <c r="B252" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C252" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A253" s="39">
         <v>1012</v>
       </c>
-      <c r="B253" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C253" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A254" s="39">
         <v>1013</v>
       </c>
-      <c r="B254" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C254" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A255" s="39">
         <v>1014</v>
       </c>
-      <c r="B255" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C255" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" s="40">
         <v>1015</v>
       </c>
-      <c r="B256" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C256" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A257" s="39">
         <v>1016</v>
       </c>
-      <c r="B257" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C257" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" s="39">
         <v>1017</v>
       </c>
-      <c r="B258" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C258" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A259" s="39">
         <v>1018</v>
       </c>
-      <c r="B259" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C259" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A260" s="39">
         <v>1019</v>
       </c>
-      <c r="B260" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C260" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A261" s="39">
         <v>1020</v>
       </c>
-      <c r="B261" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C261" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A262" s="40">
         <v>1021</v>
       </c>
-      <c r="B262" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C262" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A263" s="39">
         <v>1022</v>
       </c>
-      <c r="B263" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C263" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" s="39">
         <v>1023</v>
       </c>
-      <c r="B264" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C264" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" s="39">
         <v>1024</v>
       </c>
-      <c r="B265" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C265" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A266" s="39">
         <v>1025</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C266" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A267" s="39">
         <v>1026</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C267" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A268" s="39">
         <v>1027</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C268" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A269" s="39">
         <v>1028</v>
       </c>
-      <c r="B269" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C269" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A270" s="39">
         <v>1029</v>
       </c>
-      <c r="B270" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C270" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" s="39">
         <v>1030</v>
       </c>
-      <c r="B271" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C271" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A272" s="39">
         <v>1031</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C272" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="40">
         <v>1032</v>
       </c>
-      <c r="B273" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C273" s="5">
-        <v>4</v>
-      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" s="39">
         <v>1033</v>
       </c>
-      <c r="B274" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C274" s="5">
-        <v>4</v>
-      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="39">
         <v>1034</v>
       </c>
-      <c r="B275" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C275" s="5">
-        <v>4</v>
-      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" s="39">
         <v>1035</v>
       </c>
-      <c r="B276" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C276" s="5">
-        <v>4</v>
-      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="39">
         <v>1036</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C277" s="5">
-        <v>4</v>
-      </c>
     </row>
     <row r="278" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A278" s="40">
         <v>1037</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C278" s="5">
-        <v>4</v>
-      </c>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" s="39"/>
